--- a/biology/Médecine/Attapulgite/Attapulgite.xlsx
+++ b/biology/Médecine/Attapulgite/Attapulgite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les attapulgites (ou palygorskites) et les sépiolites sont des argiles alumino-magnésiennes fibreuses généralement constituées de fibres de l'ordre de 1 à 3 microns de long[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les attapulgites (ou palygorskites) et les sépiolites sont des argiles alumino-magnésiennes fibreuses généralement constituées de fibres de l'ordre de 1 à 3 microns de long.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification géologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elles sont parfois rassemblées dans le groupe des hormites. 
 Les termes attapulgite (d'Attapulgus - Georgie, États-Unis) et palygorskite (de Palygorsk, province de Perm, Russie) désignent le même type d'argile. 
@@ -548,13 +562,15 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, elles ont été utilisées, aux XVIIIe et XIXe siècles, pour la fabrication de pipes et de porcelaine (sépiolite espagnole), comme terre à foulon pour le nettoyage de la laine (attapulgite américaine). 
-Actuellement, elles sont principalement exploitées pour la production de granulés absorbants (litières animales, nettoyage de sol, supports phytosanitaires)[2]. 
-Elles servent aussi d'absorbant de l'eau, d'huiles ou de produits chimiques[3].
+Actuellement, elles sont principalement exploitées pour la production de granulés absorbants (litières animales, nettoyage de sol, supports phytosanitaires). 
+Elles servent aussi d'absorbant de l'eau, d'huiles ou de produits chimiques.
 Dans la pharmacopée, elles ont été ou sont encore dans certains pays utilisées contre certains troubles intestinaux, dont les diarrhées (mises sur le marché en France sous le nom commercial d'Actapulgite, aussi présente, en association, dans la Gastropulgite).
-Cette argile a été ajoutée (avec 11 autres médicaments) en 2020 à la liste noire des médicaments aux effets indésirables disproportionnés par rapport à leur faible efficacité ou à la bénignité de la situation clinique dans laquelle ils sont autorisés (liste publiée annuellement par la revue médicale Prescrire)[4].
+Cette argile a été ajoutée (avec 11 autres médicaments) en 2020 à la liste noire des médicaments aux effets indésirables disproportionnés par rapport à leur faible efficacité ou à la bénignité de la situation clinique dans laquelle ils sont autorisés (liste publiée annuellement par la revue médicale Prescrire).
 </t>
         </is>
       </c>
